--- a/biology/Botanique/Sauge_sclarée/Sauge_sclarée.xlsx
+++ b/biology/Botanique/Sauge_sclarée/Sauge_sclarée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sauge_sclar%C3%A9e</t>
+          <t>Sauge_sclarée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salvia sclarea
-La sauge sclarée (Salvia sclarea L.) est une plante herbacée bisannuelle de la famille des Lamiacées, originaire du sud de l'Europe et d'Asie occidentale. Elle est cultivée pour ses feuilles et fleurs[1] utilisées pour leurs qualités aromatiques et médicinales.
+La sauge sclarée (Salvia sclarea L.) est une plante herbacée bisannuelle de la famille des Lamiacées, originaire du sud de l'Europe et d'Asie occidentale. Elle est cultivée pour ses feuilles et fleurs utilisées pour leurs qualités aromatiques et médicinales.
 On trouve aussi les appellations communes suivantes : "toute bonne", "sclarée", "orvale", "orviot".
 Étymologie : mot "sclarée" vient du grec sklêros , σκληρός, "dur".
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sauge_sclar%C3%A9e</t>
+          <t>Sauge_sclarée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sauge sclarée est une plante herbacée bisannuelle ou vivace (de vie courte), très odorante, très velue, de 40-100 cm de hauteur dans la nature mais pouvant atteindre 1,60 m en culture. Les tiges quadrangulaires sont assez robustes, érigées, ramifiées. Elles portent dans la partie supérieure des poils glanduleux (contenant de l'huile essentielle) et sont pubescentes ailleurs.
 Les feuilles sont grandes, opposées, de forme ovale, à base cordée, à marge serretée, crénelée, pubescentes-grisâtres. Le pétiole fait de 4 à 15 cm.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sauge_sclar%C3%A9e</t>
+          <t>Sauge_sclarée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est originaire d'Asie occidentale (Turquie, Caucase, Syrie, Liban, Iran, Afghanistan, Pakistan) et d'Europe méridionale et centrale (Allemagne, Italie, France, Bulgarie, Grèce, ex-Yougoslavie, Espagne, Portugal).
 Largement cultivée dans les pays tempérés comme plante à la fois ornementale et médicinale, la sauge sclarée se ressème spontanément. Naturalisée dans de nombreuses régions d'Europe et d'Amérique, elle est même considérée comme plante envahissante aux États-Unis.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sauge_sclar%C3%A9e</t>
+          <t>Sauge_sclarée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,10 +601,12 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'huile essentielle tirée des feuilles possède des propriétés analgésiques, anti-inflammatoires, antioxydantes, antimicrobiennes et cytotoxiques. Elle est riche en Oméga-3 et comporte des monoterpènes, des sesquiterpènes et des diterpènes. Les composants principaux sont le linalol (42 %), l'alpha-terpineol (13 %), le géraniol (6 %), le myrcène (3 %) et le sclaréol[2] de 1,6 à 7 %[3]. Le linalol est un des monoterpènes les plus utilisés par l'industrie de la parfumerie. Il possède des activités antinociceptives, anticonvulsifiantes et sédatives[4].
-La racine de la sauge sclarée est connue pour accumuler des diterpénoïdes (ferruginol, salvipisone, aethiopinone). Ces composés manifestent des activités antibactériennes Gram-positives. La salvipisone développe la plus forte activité antibactérienne[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'huile essentielle tirée des feuilles possède des propriétés analgésiques, anti-inflammatoires, antioxydantes, antimicrobiennes et cytotoxiques. Elle est riche en Oméga-3 et comporte des monoterpènes, des sesquiterpènes et des diterpènes. Les composants principaux sont le linalol (42 %), l'alpha-terpineol (13 %), le géraniol (6 %), le myrcène (3 %) et le sclaréol de 1,6 à 7 %. Le linalol est un des monoterpènes les plus utilisés par l'industrie de la parfumerie. Il possède des activités antinociceptives, anticonvulsifiantes et sédatives.
+La racine de la sauge sclarée est connue pour accumuler des diterpénoïdes (ferruginol, salvipisone, aethiopinone). Ces composés manifestent des activités antibactériennes Gram-positives. La salvipisone développe la plus forte activité antibactérienne.
 La plante est aussi riche en vitamine K (vitamine K1).
 </t>
         </is>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sauge_sclar%C3%A9e</t>
+          <t>Sauge_sclarée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa culture demande un sol frais, léger, légèrement calcaire (pH &gt; 6.5) et une exposition ensoleillée.
 La multiplication se fait par semis au début du printemps en pépinière, suivi d'un repiquage en mai, ou bien par division de touffes. La récolte intervient au bout de 4 à 5 mois après la plantation.
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sauge_sclar%C3%A9e</t>
+          <t>Sauge_sclarée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,7 +670,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles peuvent être utilisées, fraîches ou séchées, pour aromatiser les plats de viande : porc, veau, mouton, gibier, la charcuterie, les sauces...
 Les grandes feuilles basales furent utilisées autrefois en Allemagne pour aromatiser le vin et lui donner un goût musqué. Elle a servi aussi en Angleterre à préparer de la bière comme substitut du houblon.
